--- a/final_data_pipeline/output/311225_elec_options.xlsx
+++ b/final_data_pipeline/output/311225_elec_options.xlsx
@@ -1670,7 +1670,7 @@
         <v>46</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE12">
         <v>8000</v>
@@ -1765,7 +1765,7 @@
         <v>46</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE13">
         <v>8000</v>
@@ -1860,7 +1860,7 @@
         <v>46</v>
       </c>
       <c r="AD14">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE14">
         <v>8000</v>
@@ -1955,7 +1955,7 @@
         <v>46</v>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE15">
         <v>8000</v>
@@ -2050,7 +2050,7 @@
         <v>46</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE16">
         <v>8000</v>
